--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Tnfsf10-Tnfrsf11b.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Tnfsf10-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,13 +79,16 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tnfsf10</t>
   </si>
   <si>
     <t>Tnfrsf11b</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,371 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>17.54967</v>
+      </c>
+      <c r="H2">
+        <v>52.64901</v>
+      </c>
+      <c r="I2">
+        <v>0.9874120321709955</v>
+      </c>
+      <c r="J2">
+        <v>0.9874120321709953</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>2.095195666666667</v>
+      </c>
+      <c r="N2">
+        <v>6.285587</v>
+      </c>
+      <c r="O2">
+        <v>0.8546922300706357</v>
+      </c>
+      <c r="P2">
+        <v>0.8546922300706358</v>
+      </c>
+      <c r="Q2">
+        <v>36.76999253543001</v>
+      </c>
+      <c r="R2">
+        <v>330.92993281887</v>
+      </c>
+      <c r="S2">
+        <v>0.8439333917748064</v>
+      </c>
+      <c r="T2">
+        <v>0.8439333917748063</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>17.54967</v>
+      </c>
+      <c r="H3">
+        <v>52.64901</v>
+      </c>
+      <c r="I3">
+        <v>0.9874120321709955</v>
+      </c>
+      <c r="J3">
+        <v>0.9874120321709953</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3">
+        <v>0.356208</v>
+      </c>
+      <c r="N3">
+        <v>1.068624</v>
+      </c>
+      <c r="O3">
+        <v>0.1453077699293643</v>
+      </c>
+      <c r="P3">
+        <v>0.1453077699293643</v>
+      </c>
+      <c r="Q3">
+        <v>6.251332851360002</v>
+      </c>
+      <c r="R3">
+        <v>56.26199566224</v>
+      </c>
+      <c r="S3">
+        <v>0.143478640396189</v>
+      </c>
+      <c r="T3">
+        <v>0.143478640396189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>7.60351522260138</v>
-      </c>
-      <c r="H2">
-        <v>7.60351522260138</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>2.08294131002118</v>
-      </c>
-      <c r="N2">
-        <v>2.08294131002118</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>15.8376759585313</v>
-      </c>
-      <c r="R2">
-        <v>15.8376759585313</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.09171866666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.275156</v>
+      </c>
+      <c r="I4">
+        <v>0.005160445469421788</v>
+      </c>
+      <c r="J4">
+        <v>0.005160445469421787</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2.095195666666667</v>
+      </c>
+      <c r="N4">
+        <v>6.285587</v>
+      </c>
+      <c r="O4">
+        <v>0.8546922300706357</v>
+      </c>
+      <c r="P4">
+        <v>0.8546922300706358</v>
+      </c>
+      <c r="Q4">
+        <v>0.1921685529524444</v>
+      </c>
+      <c r="R4">
+        <v>1.729516976572</v>
+      </c>
+      <c r="S4">
+        <v>0.004410592646418016</v>
+      </c>
+      <c r="T4">
+        <v>0.004410592646418016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.09171866666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.275156</v>
+      </c>
+      <c r="I5">
+        <v>0.005160445469421788</v>
+      </c>
+      <c r="J5">
+        <v>0.005160445469421787</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.356208</v>
+      </c>
+      <c r="N5">
+        <v>1.068624</v>
+      </c>
+      <c r="O5">
+        <v>0.1453077699293643</v>
+      </c>
+      <c r="P5">
+        <v>0.1453077699293643</v>
+      </c>
+      <c r="Q5">
+        <v>0.032670922816</v>
+      </c>
+      <c r="R5">
+        <v>0.294038305344</v>
+      </c>
+      <c r="S5">
+        <v>0.0007498528230037713</v>
+      </c>
+      <c r="T5">
+        <v>0.0007498528230037712</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.1320123333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.396037</v>
+      </c>
+      <c r="I6">
+        <v>0.007427522359582914</v>
+      </c>
+      <c r="J6">
+        <v>0.007427522359582914</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.095195666666667</v>
+      </c>
+      <c r="N6">
+        <v>6.285587</v>
+      </c>
+      <c r="O6">
+        <v>0.8546922300706357</v>
+      </c>
+      <c r="P6">
+        <v>0.8546922300706358</v>
+      </c>
+      <c r="Q6">
+        <v>0.2765916687465555</v>
+      </c>
+      <c r="R6">
+        <v>2.489325018719</v>
+      </c>
+      <c r="S6">
+        <v>0.006348245649411431</v>
+      </c>
+      <c r="T6">
+        <v>0.006348245649411431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.1320123333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.396037</v>
+      </c>
+      <c r="I7">
+        <v>0.007427522359582914</v>
+      </c>
+      <c r="J7">
+        <v>0.007427522359582914</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.356208</v>
+      </c>
+      <c r="N7">
+        <v>1.068624</v>
+      </c>
+      <c r="O7">
+        <v>0.1453077699293643</v>
+      </c>
+      <c r="P7">
+        <v>0.1453077699293643</v>
+      </c>
+      <c r="Q7">
+        <v>0.047023849232</v>
+      </c>
+      <c r="R7">
+        <v>0.423214643088</v>
+      </c>
+      <c r="S7">
+        <v>0.001079276710171483</v>
+      </c>
+      <c r="T7">
+        <v>0.001079276710171483</v>
       </c>
     </row>
   </sheetData>
